--- a/嵌入式测试表/嵌入式整机模板.xlsx
+++ b/嵌入式测试表/嵌入式整机模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="270">
   <si>
     <r>
       <t>研</t>
@@ -2502,6 +2502,14 @@
   </si>
   <si>
     <t>测试时间：</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3263,17 +3271,23 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3338,9 +3352,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3401,6 +3424,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3428,13 +3454,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3443,6 +3469,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3530,6 +3565,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3551,15 +3598,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3571,36 +3609,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3905,7 +3913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6:M6"/>
     </sheetView>
   </sheetViews>
@@ -3922,369 +3930,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
     </row>
     <row r="3" spans="1:13" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="82"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="88"/>
     </row>
     <row r="4" spans="1:13" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="66"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="71"/>
     </row>
     <row r="5" spans="1:13" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="66"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="71"/>
     </row>
     <row r="6" spans="1:13" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="74" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="71"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="74" t="s">
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="71"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="76"/>
     </row>
     <row r="9" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="74" t="s">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="71"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="76"/>
     </row>
     <row r="10" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="66"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="71"/>
     </row>
     <row r="11" spans="1:13" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="75">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="81">
         <v>0.3</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="77"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="83"/>
     </row>
     <row r="12" spans="1:13" ht="40.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="74" t="s">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="74" t="s">
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="74" t="s">
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="61"/>
-      <c r="M12" s="71"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63" t="s">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="63">
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="68">
         <v>1</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="63" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="64"/>
-      <c r="M13" s="66"/>
+      <c r="L13" s="69"/>
+      <c r="M13" s="71"/>
     </row>
     <row r="14" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63" t="s">
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="63">
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="68">
         <v>1</v>
       </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="63" t="s">
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="64"/>
-      <c r="M14" s="66"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="71"/>
     </row>
     <row r="15" spans="1:13" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="71"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="76"/>
     </row>
     <row r="16" spans="1:13" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="54" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="58" t="s">
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="59"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
     </row>
     <row r="17" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="30" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:16" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
     </row>
     <row r="19" spans="1:16" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
@@ -4294,15 +4302,15 @@
       <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="28" t="s">
+      <c r="H19" s="62"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="58"/>
       <c r="L19" s="2" t="s">
         <v>27</v>
       </c>
@@ -4311,185 +4319,185 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="56"/>
+      <c r="B20" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58" t="s">
+      <c r="E20" s="60"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="67"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="32" t="s">
+      <c r="H20" s="72"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:16" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="1:16" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="54" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="28" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="54" t="s">
+      <c r="H22" s="62"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61"/>
     </row>
     <row r="23" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="56"/>
+      <c r="B23" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="32" t="s">
+      <c r="C23" s="64"/>
+      <c r="D23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="32" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="32" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="43"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="43"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="43"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="46"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="48"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -4514,14 +4522,18 @@
     <mergeCell ref="D10:M10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="D11:M11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="G20:I21"/>
@@ -4535,6 +4547,9 @@
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:F17"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:M18"/>
+    <mergeCell ref="A24:M28"/>
     <mergeCell ref="A1:M2"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:C22"/>
@@ -4549,13 +4564,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:M18"/>
-    <mergeCell ref="A24:M28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4582,189 +4590,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="89" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="90" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="134" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="1:10" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="133" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="28" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="91" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
       <c r="G6" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
       <c r="G7" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="91" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="137" t="s">
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="138" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="92">
         <v>20191210</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="H3:J3"/>
@@ -4773,10 +4775,16 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H8:J8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4803,45 +4811,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="90" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="89"/>
+      <c r="I2" s="98"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="11" t="s">
         <v>53</v>
       </c>
@@ -4851,11 +4859,11 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,10 +4888,10 @@
       <c r="G4" s="8">
         <v>1</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="83"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -4907,10 +4915,10 @@
       <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="83" t="s">
+      <c r="H5" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="83"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -4934,10 +4942,10 @@
       <c r="G6" s="8">
         <v>5</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="83"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -4961,10 +4969,10 @@
       <c r="G7" s="8">
         <v>8</v>
       </c>
-      <c r="H7" s="83" t="s">
+      <c r="H7" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="83"/>
+      <c r="I7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -4988,10 +4996,10 @@
       <c r="G8" s="8">
         <v>10</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="83"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -5015,10 +5023,10 @@
       <c r="G9" s="8">
         <v>12</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -5042,10 +5050,10 @@
       <c r="G10" s="8">
         <v>14</v>
       </c>
-      <c r="H10" s="83" t="s">
+      <c r="H10" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="83"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -5069,10 +5077,10 @@
       <c r="G11" s="8">
         <v>16</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="H11" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="83"/>
+      <c r="I11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -5096,10 +5104,10 @@
       <c r="G12" s="8">
         <v>18</v>
       </c>
-      <c r="H12" s="83" t="s">
+      <c r="H12" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="83"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -5123,10 +5131,10 @@
       <c r="G13" s="8">
         <v>20</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="83"/>
+      <c r="I13" s="91"/>
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -5150,10 +5158,10 @@
       <c r="G14" s="8">
         <v>22</v>
       </c>
-      <c r="H14" s="83" t="s">
+      <c r="H14" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="83"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -5177,10 +5185,10 @@
       <c r="G15" s="8">
         <v>25</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="83"/>
+      <c r="I15" s="91"/>
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -5204,10 +5212,10 @@
       <c r="G16" s="8">
         <v>27</v>
       </c>
-      <c r="H16" s="83" t="s">
+      <c r="H16" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="83"/>
+      <c r="I16" s="91"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -5231,10 +5239,10 @@
       <c r="G17" s="8">
         <v>29</v>
       </c>
-      <c r="H17" s="83" t="s">
+      <c r="H17" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="83"/>
+      <c r="I17" s="91"/>
     </row>
     <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -5258,10 +5266,10 @@
       <c r="G18" s="8">
         <v>31</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="H18" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="83"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -5285,10 +5293,10 @@
       <c r="G19" s="8">
         <v>33</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I19" s="83"/>
+      <c r="I19" s="91"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -5312,10 +5320,10 @@
       <c r="G20" s="8">
         <v>35</v>
       </c>
-      <c r="H20" s="83" t="s">
+      <c r="H20" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="83"/>
+      <c r="I20" s="91"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -5339,10 +5347,10 @@
       <c r="G21" s="8">
         <v>37</v>
       </c>
-      <c r="H21" s="83" t="s">
+      <c r="H21" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="83"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -5366,10 +5374,10 @@
       <c r="G22" s="8">
         <v>39</v>
       </c>
-      <c r="H22" s="83" t="s">
+      <c r="H22" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -5393,10 +5401,10 @@
       <c r="G23" s="8">
         <v>41</v>
       </c>
-      <c r="H23" s="83" t="s">
+      <c r="H23" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="83"/>
+      <c r="I23" s="91"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -5420,10 +5428,10 @@
       <c r="G24" s="8">
         <v>43</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="83"/>
+      <c r="I24" s="91"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -5447,10 +5455,10 @@
       <c r="G25" s="8">
         <v>46</v>
       </c>
-      <c r="H25" s="83" t="s">
+      <c r="H25" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="83"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -5474,10 +5482,10 @@
       <c r="G26" s="8">
         <v>48</v>
       </c>
-      <c r="H26" s="83" t="s">
+      <c r="H26" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="83"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -5501,10 +5509,10 @@
       <c r="G27" s="8">
         <v>50</v>
       </c>
-      <c r="H27" s="83" t="s">
+      <c r="H27" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="83"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
@@ -5528,10 +5536,10 @@
       <c r="G28" s="8">
         <v>52</v>
       </c>
-      <c r="H28" s="83" t="s">
+      <c r="H28" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I28" s="83"/>
+      <c r="I28" s="91"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -5555,10 +5563,10 @@
       <c r="G29" s="8">
         <v>54</v>
       </c>
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="83"/>
+      <c r="I29" s="91"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -5582,10 +5590,10 @@
       <c r="G30" s="8">
         <v>56</v>
       </c>
-      <c r="H30" s="83" t="s">
+      <c r="H30" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I30" s="83"/>
+      <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -5609,10 +5617,10 @@
       <c r="G31" s="8">
         <v>58</v>
       </c>
-      <c r="H31" s="83" t="s">
+      <c r="H31" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="83"/>
+      <c r="I31" s="91"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -5636,10 +5644,10 @@
       <c r="G32" s="8">
         <v>60</v>
       </c>
-      <c r="H32" s="83" t="s">
+      <c r="H32" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="83"/>
+      <c r="I32" s="91"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
@@ -5663,10 +5671,10 @@
       <c r="G33" s="8">
         <v>62</v>
       </c>
-      <c r="H33" s="83" t="s">
+      <c r="H33" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I33" s="83"/>
+      <c r="I33" s="91"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
@@ -5690,10 +5698,10 @@
       <c r="G34" s="8">
         <v>64</v>
       </c>
-      <c r="H34" s="83" t="s">
+      <c r="H34" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I34" s="83"/>
+      <c r="I34" s="91"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -5717,10 +5725,10 @@
       <c r="G35" s="8">
         <v>67</v>
       </c>
-      <c r="H35" s="83" t="s">
+      <c r="H35" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="83"/>
+      <c r="I35" s="91"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
@@ -5740,8 +5748,8 @@
       <c r="G36" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -5761,29 +5769,29 @@
       <c r="G37" s="8">
         <v>78</v>
       </c>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="84" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="139" t="s">
+      <c r="D38" s="95"/>
+      <c r="E38" s="33" t="s">
         <v>266</v>
       </c>
       <c r="F38" s="18">
         <v>20191210</v>
       </c>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -5857,41 +5865,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="90" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="98" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="11" t="s">
         <v>53</v>
       </c>
@@ -5901,12 +5909,12 @@
       <c r="D3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="89"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -6777,24 +6785,24 @@
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="140" t="s">
+      <c r="A38" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="84" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="85"/>
-      <c r="E38" s="139" t="s">
+      <c r="D38" s="95"/>
+      <c r="E38" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="F38" s="136">
+      <c r="F38" s="30">
         <v>20191210</v>
       </c>
-      <c r="G38" s="86" t="s">
+      <c r="G38" s="92" t="s">
         <v>262</v>
       </c>
-      <c r="H38" s="87"/>
+      <c r="H38" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6820,7 +6828,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="H6" sqref="H6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -6837,73 +6845,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
     </row>
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="100" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="103">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -6918,13 +6926,13 @@
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="104">
         <v>4.5780000000000003</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6932,8 +6940,8 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="7" t="s">
         <v>156</v>
       </c>
@@ -6946,18 +6954,18 @@
       <c r="G5" s="5">
         <v>3</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="83"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="103">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -6972,13 +6980,13 @@
       <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="104">
         <v>4.5839999999999996</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -6986,8 +6994,8 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="7" t="s">
         <v>161</v>
       </c>
@@ -7000,18 +7008,18 @@
       <c r="G7" s="5">
         <v>8</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="83"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="103">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -7026,13 +7034,13 @@
       <c r="G8" s="5">
         <v>10</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="104">
         <v>4.5839999999999996</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7040,8 +7048,8 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="7" t="s">
         <v>163</v>
       </c>
@@ -7054,18 +7062,18 @@
       <c r="G9" s="5">
         <v>12</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="83"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="91"/>
     </row>
     <row r="10" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="103">
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -7080,13 +7088,13 @@
       <c r="G10" s="5">
         <v>14</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="104">
         <v>4.5780000000000003</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7094,8 +7102,8 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="7" t="s">
         <v>164</v>
       </c>
@@ -7108,18 +7116,18 @@
       <c r="G11" s="5">
         <v>16</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="83"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="103">
         <v>4</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -7134,13 +7142,13 @@
       <c r="G12" s="5">
         <v>18</v>
       </c>
-      <c r="H12" s="95" t="s">
+      <c r="H12" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="104">
         <v>4.5780000000000003</v>
       </c>
-      <c r="J12" s="83" t="s">
+      <c r="J12" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7148,8 +7156,8 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="7" t="s">
         <v>165</v>
       </c>
@@ -7162,18 +7170,18 @@
       <c r="G13" s="5">
         <v>20</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="83"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="103">
         <v>5</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -7188,10 +7196,10 @@
       <c r="G14" s="5">
         <v>22</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="104">
         <v>4.5780000000000003</v>
       </c>
       <c r="J14" s="14" t="s">
@@ -7202,8 +7210,8 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="7" t="s">
         <v>166</v>
       </c>
@@ -7216,18 +7224,18 @@
       <c r="G15" s="5">
         <v>25</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="94">
+      <c r="C16" s="103">
         <v>6</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -7242,13 +7250,13 @@
       <c r="G16" s="5">
         <v>27</v>
       </c>
-      <c r="H16" s="95" t="s">
+      <c r="H16" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I16" s="95">
+      <c r="I16" s="104">
         <v>4.5780000000000003</v>
       </c>
-      <c r="J16" s="83" t="s">
+      <c r="J16" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7256,8 +7264,8 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="7" t="s">
         <v>167</v>
       </c>
@@ -7270,18 +7278,18 @@
       <c r="G17" s="5">
         <v>29</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="83"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="94">
+      <c r="C18" s="103">
         <v>7</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -7296,13 +7304,13 @@
       <c r="G18" s="5">
         <v>31</v>
       </c>
-      <c r="H18" s="95" t="s">
+      <c r="H18" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I18" s="95">
+      <c r="I18" s="104">
         <v>4.5780000000000003</v>
       </c>
-      <c r="J18" s="83" t="s">
+      <c r="J18" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7310,8 +7318,8 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
       <c r="D19" s="7" t="s">
         <v>168</v>
       </c>
@@ -7324,18 +7332,18 @@
       <c r="G19" s="5">
         <v>33</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="83"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="91"/>
     </row>
     <row r="20" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="94">
+      <c r="C20" s="103">
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -7350,13 +7358,13 @@
       <c r="G20" s="5">
         <v>35</v>
       </c>
-      <c r="H20" s="95" t="s">
+      <c r="H20" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I20" s="95">
+      <c r="I20" s="104">
         <v>4.5780000000000003</v>
       </c>
-      <c r="J20" s="83" t="s">
+      <c r="J20" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7364,8 +7372,8 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
       <c r="D21" s="7" t="s">
         <v>169</v>
       </c>
@@ -7378,18 +7386,18 @@
       <c r="G21" s="5">
         <v>37</v>
       </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="83"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="94">
+      <c r="C22" s="103">
         <v>10</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -7404,13 +7412,13 @@
       <c r="G22" s="5">
         <v>39</v>
       </c>
-      <c r="H22" s="95" t="s">
+      <c r="H22" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="95">
+      <c r="I22" s="104">
         <v>4.5839999999999996</v>
       </c>
-      <c r="J22" s="83" t="s">
+      <c r="J22" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7418,8 +7426,8 @@
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="7" t="s">
         <v>170</v>
       </c>
@@ -7432,18 +7440,18 @@
       <c r="G23" s="5">
         <v>41</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="83"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="91"/>
     </row>
     <row r="24" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="103">
         <v>11</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -7458,13 +7466,13 @@
       <c r="G24" s="5">
         <v>43</v>
       </c>
-      <c r="H24" s="95" t="s">
+      <c r="H24" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="95">
+      <c r="I24" s="104">
         <v>4.5839999999999996</v>
       </c>
-      <c r="J24" s="83" t="s">
+      <c r="J24" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7472,8 +7480,8 @@
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="7" t="s">
         <v>171</v>
       </c>
@@ -7486,18 +7494,18 @@
       <c r="G25" s="5">
         <v>46</v>
       </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="83"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="91"/>
     </row>
     <row r="26" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="94">
+      <c r="C26" s="103">
         <v>12</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -7512,13 +7520,13 @@
       <c r="G26" s="5">
         <v>48</v>
       </c>
-      <c r="H26" s="95" t="s">
+      <c r="H26" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I26" s="95">
+      <c r="I26" s="104">
         <v>4.5890000000000004</v>
       </c>
-      <c r="J26" s="83" t="s">
+      <c r="J26" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7526,8 +7534,8 @@
       <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="7" t="s">
         <v>172</v>
       </c>
@@ -7540,18 +7548,18 @@
       <c r="G27" s="5">
         <v>50</v>
       </c>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="83"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B28" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="103">
         <v>13</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -7566,13 +7574,13 @@
       <c r="G28" s="5">
         <v>52</v>
       </c>
-      <c r="H28" s="95" t="s">
+      <c r="H28" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I28" s="95">
+      <c r="I28" s="104">
         <v>4.5839999999999996</v>
       </c>
-      <c r="J28" s="83" t="s">
+      <c r="J28" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7580,8 +7588,8 @@
       <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="7" t="s">
         <v>173</v>
       </c>
@@ -7594,18 +7602,18 @@
       <c r="G29" s="5">
         <v>54</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="83"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="94" t="s">
+      <c r="B30" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="94">
+      <c r="C30" s="103">
         <v>14</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -7620,13 +7628,13 @@
       <c r="G30" s="5">
         <v>56</v>
       </c>
-      <c r="H30" s="95" t="s">
+      <c r="H30" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I30" s="95">
+      <c r="I30" s="104">
         <v>4.5890000000000004</v>
       </c>
-      <c r="J30" s="83" t="s">
+      <c r="J30" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7634,8 +7642,8 @@
       <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="7" t="s">
         <v>174</v>
       </c>
@@ -7648,18 +7656,18 @@
       <c r="G31" s="5">
         <v>58</v>
       </c>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="83"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="103">
         <v>15</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -7674,13 +7682,13 @@
       <c r="G32" s="5">
         <v>60</v>
       </c>
-      <c r="H32" s="95" t="s">
+      <c r="H32" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="95">
+      <c r="I32" s="104">
         <v>4.5839999999999996</v>
       </c>
-      <c r="J32" s="83" t="s">
+      <c r="J32" s="91" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7688,8 +7696,8 @@
       <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
       <c r="D33" s="7" t="s">
         <v>175</v>
       </c>
@@ -7702,28 +7710,28 @@
       <c r="G33" s="5">
         <v>62</v>
       </c>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="83"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="91"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93" t="s">
+      <c r="H34" s="102"/>
+      <c r="I34" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="J34" s="93"/>
+      <c r="J34" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="88">
@@ -7826,8 +7834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7844,73 +7852,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="91" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="91" t="s">
+      <c r="J2" s="100" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="90"/>
+      <c r="A3" s="99"/>
       <c r="B3" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="103">
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -7925,13 +7933,13 @@
       <c r="G4" s="5">
         <v>64</v>
       </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="95">
+      <c r="I4" s="104">
         <v>4.7889999999999997</v>
       </c>
-      <c r="J4" s="96" t="s">
+      <c r="J4" s="105" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7939,8 +7947,8 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="5" t="s">
         <v>187</v>
       </c>
@@ -7953,18 +7961,18 @@
       <c r="G5" s="5">
         <v>67</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
     </row>
     <row r="6" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="103">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -7979,13 +7987,13 @@
       <c r="G6" s="5">
         <v>69</v>
       </c>
-      <c r="H6" s="95" t="s">
+      <c r="H6" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="104">
         <v>4.79</v>
       </c>
-      <c r="J6" s="96" t="s">
+      <c r="J6" s="105" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7993,8 +8001,8 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="5" t="s">
         <v>191</v>
       </c>
@@ -8007,18 +8015,18 @@
       <c r="G7" s="5">
         <v>71</v>
       </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="96"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="103">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -8033,13 +8041,13 @@
       <c r="G8" s="5">
         <v>73</v>
       </c>
-      <c r="H8" s="95" t="s">
+      <c r="H8" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="104">
         <v>4.7770000000000001</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="105" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8047,8 +8055,8 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="5" t="s">
         <v>192</v>
       </c>
@@ -8061,18 +8069,18 @@
       <c r="G9" s="5">
         <v>75</v>
       </c>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="103">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -8087,13 +8095,13 @@
       <c r="G10" s="5">
         <v>76</v>
       </c>
-      <c r="H10" s="95" t="s">
+      <c r="H10" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="104">
         <v>4.7759999999999998</v>
       </c>
-      <c r="J10" s="96" t="s">
+      <c r="J10" s="105" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8101,8 +8109,8 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="5" t="s">
         <v>193</v>
       </c>
@@ -8115,9 +8123,9 @@
       <c r="G11" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
@@ -8148,65 +8156,65 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="G13" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="93"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="15" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
     </row>
     <row r="16" spans="1:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="91"/>
-      <c r="E16" s="102" t="s">
+      <c r="D16" s="100"/>
+      <c r="E16" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="100" t="s">
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="J16" s="101"/>
+      <c r="J16" s="110"/>
     </row>
     <row r="17" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
       <c r="E17" s="21"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -8221,37 +8229,37 @@
       <c r="B18" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="106" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="98" t="s">
+      <c r="D18" s="106"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="J18" s="99"/>
+      <c r="J18" s="108"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="A19" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="G19" s="93" t="s">
+      <c r="G19" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93" t="s">
+      <c r="H19" s="102"/>
+      <c r="I19" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="J19" s="93"/>
+      <c r="J19" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -8313,8 +8321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -8325,18 +8333,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -8345,20 +8353,20 @@
       <c r="B2" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="137" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127" t="s">
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137" t="s">
         <v>213</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127" t="s">
+      <c r="G2" s="137"/>
+      <c r="H2" s="137" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
     </row>
     <row r="3" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
@@ -8367,20 +8375,20 @@
       <c r="B3" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131" t="s">
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
@@ -8389,20 +8397,20 @@
       <c r="B4" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131" t="s">
+      <c r="D4" s="139"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131" t="s">
+      <c r="G4" s="129"/>
+      <c r="H4" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
     </row>
     <row r="5" spans="1:10" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
@@ -8411,20 +8419,20 @@
       <c r="B5" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
     </row>
     <row r="6" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
@@ -8433,260 +8441,257 @@
       <c r="B6" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="128" t="s">
+      <c r="C6" s="138" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131" t="s">
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131" t="s">
+      <c r="G6" s="129"/>
+      <c r="H6" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>221</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
       <c r="D7" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="118" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="131" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="119"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="121" t="s">
+      <c r="F10" s="132"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="134" t="s">
         <v>227</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="1:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>1</v>
       </c>
-      <c r="B11" s="124">
+      <c r="B11" s="126">
         <v>59</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="124">
+      <c r="C11" s="127"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="126">
         <v>1</v>
       </c>
-      <c r="F11" s="125"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="124">
+      <c r="F11" s="127"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="126">
         <v>121046</v>
       </c>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" t="s">
         <v>222</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107" t="s">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
     </row>
     <row r="15" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="108" t="s">
+      <c r="C15" s="118"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="117" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="110"/>
-      <c r="G15" s="108" t="s">
+      <c r="F15" s="119"/>
+      <c r="G15" s="117" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="110"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B16" s="111">
+      <c r="B16" s="120">
         <v>27.5</v>
       </c>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="111">
+      <c r="C16" s="121"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="120">
         <v>30.524999999999999</v>
       </c>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107" t="s">
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="20" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="97" t="s">
         <v>239</v>
       </c>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
     </row>
     <row r="21" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91" t="s">
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91" t="s">
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="J21" s="91"/>
+      <c r="J21" s="100"/>
     </row>
     <row r="22" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="94">
+      <c r="B22" s="103">
         <v>167</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94" t="s">
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="97" t="s">
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="J22" s="97"/>
+      <c r="J22" s="106"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" t="s">
         <v>222</v>
       </c>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107" t="s">
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116" t="s">
         <v>224</v>
       </c>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
@@ -8707,6 +8712,9 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:J12"/>
